--- a/AutomationREST/xls_data/student.xlsx
+++ b/AutomationREST/xls_data/student.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\PycharmProjects\AutomationREST\xls_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e800c826eebae0bf/Documents/codesample/AutomationREST/xls_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D833139-5B03-438C-A705-EFA443CC44C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{68B3262C-6FCD-46DE-80AC-C7B3170D2E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30195" yWindow="3855" windowWidth="21600" windowHeight="11295" xr2:uid="{A95AD888-D531-4266-9973-89131B50FD7B}"/>
+    <workbookView xWindow="38145" yWindow="3930" windowWidth="21600" windowHeight="11295" xr2:uid="{2A2563CA-06F3-41BA-AE26-AC58BC06548A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,52 +53,52 @@
     <t>tester1</t>
   </si>
   <si>
+    <t>mid1</t>
+  </si>
+  <si>
     <t>last1</t>
   </si>
   <si>
-    <t>mid1</t>
-  </si>
-  <si>
     <t>tester2</t>
   </si>
   <si>
+    <t>mid2</t>
+  </si>
+  <si>
+    <t>last2</t>
+  </si>
+  <si>
     <t>tester3</t>
   </si>
   <si>
+    <t>mid3</t>
+  </si>
+  <si>
+    <t>last3</t>
+  </si>
+  <si>
     <t>tester4</t>
   </si>
   <si>
+    <t>mid4</t>
+  </si>
+  <si>
+    <t>last4</t>
+  </si>
+  <si>
     <t>tester5</t>
   </si>
   <si>
+    <t>mid5</t>
+  </si>
+  <si>
+    <t>last5</t>
+  </si>
+  <si>
     <t>tester6</t>
   </si>
   <si>
-    <t>mid2</t>
-  </si>
-  <si>
-    <t>mid3</t>
-  </si>
-  <si>
-    <t>mid4</t>
-  </si>
-  <si>
-    <t>mid5</t>
-  </si>
-  <si>
     <t>mid6</t>
-  </si>
-  <si>
-    <t>last2</t>
-  </si>
-  <si>
-    <t>last3</t>
-  </si>
-  <si>
-    <t>last4</t>
-  </si>
-  <si>
-    <t>last5</t>
   </si>
   <si>
     <t>last6</t>
@@ -108,16 +108,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -459,19 +453,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFE23FAA-DDBD-4E04-9690-67502F8619E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AAB9224-629B-4A0E-BDA8-245A3279D586}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D7"/>
+      <selection sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -493,10 +487,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
       <c r="D2" s="1">
         <v>44997</v>
@@ -507,10 +501,10 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1">
         <v>44998</v>
@@ -518,13 +512,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1">
         <v>44999</v>
@@ -532,13 +526,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1">
         <v>45000</v>
@@ -546,13 +540,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1">
         <v>45001</v>
@@ -560,10 +554,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -573,7 +567,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>